--- a/Recurrent Neural Networks/doctorsBrain.xlsx
+++ b/Recurrent Neural Networks/doctorsBrain.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROBOOK 450\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pythonProjects\Recurrent Neural Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,27 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="645">
   <si>
     <t>P_complain</t>
   </si>
   <si>
-    <t>P_temperature</t>
-  </si>
-  <si>
-    <t>P_weight</t>
-  </si>
-  <si>
-    <t>P_pulse</t>
-  </si>
-  <si>
     <t>P_disease</t>
-  </si>
-  <si>
-    <t>P_recommended_drugs</t>
-  </si>
-  <si>
-    <t>P_recommended_Test</t>
   </si>
   <si>
     <t xml:space="preserve">general belly pain or discomfort, which may come and go or be constant, Pain in the chest, belly (abdomen), lower back, or flank (over the kidneys). It may spread to the groin, buttocks, or legs. The pain may be deep, aching, gnawing, or throbbing, and it may last for hours or days. It is generally not affected by movement. But certain positions may be more comfortable than others, A pulsating feeling in the belly, A "cold foot" or a black or blue painful toe. This can happen if an aneurysm produces a blood clot that breaks off and blocks blood flow to the legs or feet, Fever or weight loss, Sudden, severe pain, An extreme drop in blood pressure, Signs of shock, </t>
@@ -5559,13 +5544,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5846,2626 +5828,2605 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K326"/>
+  <dimension ref="A1:C324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="J326" sqref="J326"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="J15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="J16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="J17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="J18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="J19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="J20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="J21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="J22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="J23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="J24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J26" t="s">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="J27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="J28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="J29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="J31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="J32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="J37" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
         <v>80</v>
       </c>
-      <c r="J40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
         <v>82</v>
       </c>
-      <c r="J41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
         <v>84</v>
       </c>
-      <c r="J42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
         <v>88</v>
       </c>
-      <c r="J44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
         <v>90</v>
       </c>
-      <c r="J45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J46" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D47" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
         <v>94</v>
       </c>
-      <c r="J47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
         <v>96</v>
       </c>
-      <c r="J48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
       </c>
-      <c r="J49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
         <v>100</v>
       </c>
-      <c r="J50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
         <v>102</v>
       </c>
-      <c r="J51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
         <v>104</v>
       </c>
-      <c r="J52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
         <v>106</v>
       </c>
-      <c r="J53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
         <v>108</v>
       </c>
-      <c r="J54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
         <v>110</v>
       </c>
-      <c r="J55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
         <v>112</v>
       </c>
-      <c r="J56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
         <v>114</v>
       </c>
-      <c r="J57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
         <v>116</v>
       </c>
-      <c r="J58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
         <v>118</v>
       </c>
-      <c r="J59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D60" s="1" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
         <v>120</v>
       </c>
-      <c r="J60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D61" s="1" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
         <v>122</v>
       </c>
-      <c r="J61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D62" s="1" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
         <v>124</v>
       </c>
-      <c r="J62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D63" s="1" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
         <v>126</v>
       </c>
-      <c r="J63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
         <v>128</v>
       </c>
-      <c r="J64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D65" s="1" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
         <v>130</v>
       </c>
-      <c r="J65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
         <v>132</v>
       </c>
-      <c r="J66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D67" s="1" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
         <v>134</v>
       </c>
-      <c r="J67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
         <v>136</v>
       </c>
-      <c r="J68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D69" s="1" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s">
         <v>138</v>
       </c>
-      <c r="J69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D70" s="1" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
         <v>140</v>
       </c>
-      <c r="J70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D71" s="1" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s">
         <v>142</v>
       </c>
-      <c r="J71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D72" s="1" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
         <v>144</v>
       </c>
-      <c r="J72" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D73" s="1" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
         <v>146</v>
       </c>
-      <c r="J73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s">
         <v>148</v>
       </c>
-      <c r="J74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D75" s="1" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s">
         <v>150</v>
       </c>
-      <c r="J75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D76" s="1" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
         <v>152</v>
       </c>
-      <c r="J76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D77" s="1" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
         <v>154</v>
       </c>
-      <c r="J77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D78" s="1" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
         <v>156</v>
       </c>
-      <c r="J78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D79" s="1" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s">
         <v>158</v>
       </c>
-      <c r="J79" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D80" s="1" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" t="s">
         <v>160</v>
       </c>
-      <c r="J80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D81" s="1" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
         <v>162</v>
       </c>
-      <c r="J81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D82" s="1" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" t="s">
         <v>164</v>
       </c>
-      <c r="J82" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D83" s="1" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
         <v>166</v>
       </c>
-      <c r="J83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D84" s="1" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s">
         <v>168</v>
       </c>
-      <c r="J84" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D85" s="1" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
         <v>170</v>
       </c>
-      <c r="J85" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D86" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J86" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D87" s="1" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" t="s">
         <v>174</v>
       </c>
-      <c r="J87" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D88" s="1" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J88" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D89" s="1" t="s">
+      <c r="B89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" t="s">
         <v>178</v>
       </c>
-      <c r="J89" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D90" s="1" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" t="s">
         <v>180</v>
       </c>
-      <c r="J90" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D91" s="1" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
         <v>182</v>
       </c>
-      <c r="J91" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D92" s="1" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s">
         <v>184</v>
       </c>
-      <c r="J92" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D93" s="1" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
         <v>186</v>
       </c>
-      <c r="J93" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D94" s="1" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
         <v>188</v>
       </c>
-      <c r="J94" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D95" s="1" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" t="s">
         <v>190</v>
       </c>
-      <c r="J95" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D96" s="1" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" t="s">
         <v>192</v>
       </c>
-      <c r="J96" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D97" s="1" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" t="s">
         <v>194</v>
       </c>
-      <c r="J97" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D98" s="1" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s">
         <v>196</v>
       </c>
-      <c r="J98" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="99" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D99" s="1" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" t="s">
         <v>198</v>
       </c>
-      <c r="J99" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D100" s="1" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s">
         <v>200</v>
       </c>
-      <c r="J100" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D101" s="1" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" t="s">
         <v>202</v>
       </c>
-      <c r="J101" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D102" s="1" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s">
         <v>204</v>
       </c>
-      <c r="J102" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D103" s="1" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
         <v>206</v>
       </c>
-      <c r="J103" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="104" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D104" s="1" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" t="s">
         <v>208</v>
       </c>
-      <c r="J104" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D105" s="1" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" t="s">
         <v>210</v>
       </c>
-      <c r="J105" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D106" s="1" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" t="s">
         <v>212</v>
       </c>
-      <c r="J106" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="107" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D107" s="1" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
         <v>214</v>
       </c>
-      <c r="J107" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="108" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D108" s="1" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" t="s">
         <v>216</v>
       </c>
-      <c r="J108" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="109" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D109" s="1" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" t="s">
         <v>218</v>
       </c>
-      <c r="J109" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="110" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D110" s="1" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
         <v>220</v>
       </c>
-      <c r="J110" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="111" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D111" s="1" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" t="s">
         <v>222</v>
       </c>
-      <c r="J111" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D112" s="1" t="s">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" t="s">
         <v>224</v>
       </c>
-      <c r="J112" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="113" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D113" s="1" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" t="s">
         <v>226</v>
       </c>
-      <c r="J113" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D114" s="1" t="s">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" t="s">
         <v>228</v>
       </c>
-      <c r="J114" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="115" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D115" s="1" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" t="s">
         <v>230</v>
       </c>
-      <c r="J115" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="116" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D116" s="1" t="s">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" t="s">
         <v>232</v>
       </c>
-      <c r="J116" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D117" s="1" t="s">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" t="s">
         <v>234</v>
       </c>
-      <c r="J117" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D118" s="1" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" t="s">
         <v>236</v>
       </c>
-      <c r="J118" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="119" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D119" s="1" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" t="s">
         <v>238</v>
       </c>
-      <c r="J119" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D120" s="1" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" t="s">
         <v>240</v>
       </c>
-      <c r="J120" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D121" s="1" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" t="s">
         <v>242</v>
       </c>
-      <c r="J121" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="122" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D122" s="1" t="s">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" t="s">
         <v>244</v>
       </c>
-      <c r="J122" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="123" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D123" s="1" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="J123" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="124" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D124" s="1" t="s">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="J124" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="125" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D125" s="1" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="J125" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="126" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D126" s="1" t="s">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="127" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D127" s="1" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="128" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D128" s="1" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="129" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D129" s="1" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="130" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D130" s="1" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D131" s="1" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D132" s="1" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D133" s="1" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="134" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D134" s="1" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="135" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D135" s="1" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="136" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D136" s="1" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="137" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D137" s="1" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="138" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D138" s="1" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="139" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D139" s="1" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="140" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D140" s="1" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="141" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D141" s="1" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="142" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D142" s="1" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="143" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D143" s="1" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="144" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D144" s="1" t="s">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="145" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D145" s="1" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="146" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D146" s="1" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="147" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D147" s="1" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="148" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D148" s="1" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="149" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D149" s="1" t="s">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="150" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D150" s="1" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="151" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D151" s="1" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="152" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D152" s="1" t="s">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="153" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D153" s="1" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="154" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D154" s="1" t="s">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="155" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D155" s="1" t="s">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="156" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D156" s="1" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="157" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D157" s="1" t="s">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="158" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D158" s="1" t="s">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="159" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D159" s="1" t="s">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="160" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D160" s="1" t="s">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="161" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D161" s="1" t="s">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="162" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D162" s="1" t="s">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="163" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D163" s="1" t="s">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="164" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D164" s="1" t="s">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="165" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D165" s="1" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="166" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D166" s="1" t="s">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="167" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D167" s="1" t="s">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="168" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D168" s="1" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="169" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D169" s="1" t="s">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="170" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D170" s="1" t="s">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="171" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D171" s="1" t="s">
+      <c r="B171" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="172" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D172" s="1" t="s">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="173" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D173" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="J173" s="2" t="s">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D174" s="1" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="175" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D175" s="1" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="176" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D176" s="1" t="s">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="177" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D177" s="1" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="178" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D178" s="1" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="179" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D179" s="1" t="s">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="J179" s="2" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="180" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D180" s="1" t="s">
+      <c r="B181" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="181" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D181" s="1" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J181" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="182" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D182" s="1" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J182" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D183" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="J183" s="2" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D184" s="1" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="185" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D185" s="1" t="s">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="186" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D186" s="1" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="187" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D187" s="1" t="s">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="188" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D188" s="1" t="s">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="189" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D189" s="1" t="s">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="190" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D190" s="1" t="s">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="191" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D191" s="1" t="s">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="192" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D192" s="1" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="193" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D193" s="1" t="s">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="194" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D194" s="1" t="s">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="195" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D195" s="1" t="s">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="196" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D196" s="1" t="s">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="197" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D197" s="1" t="s">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="198" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D198" s="1" t="s">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="199" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D199" s="1" t="s">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="200" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D200" s="1" t="s">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="201" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D201" s="1" t="s">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="202" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D202" s="1" t="s">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="203" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D203" s="1" t="s">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="204" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D204" s="1" t="s">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="205" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D205" s="1" t="s">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="206" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D206" s="1" t="s">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="207" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D207" s="1" t="s">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="208" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D208" s="1" t="s">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="209" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D209" s="1" t="s">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="210" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D210" s="1" t="s">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="211" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D211" s="1" t="s">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="212" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D212" s="1" t="s">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="213" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D213" s="1" t="s">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="214" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D214" s="1" t="s">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="215" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D215" s="1" t="s">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="216" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D216" s="1" t="s">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="217" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D217" s="1" t="s">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="218" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D218" s="1" t="s">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="219" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D219" s="1" t="s">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="220" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D220" s="1" t="s">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="221" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D221" s="1" t="s">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="222" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D222" s="1" t="s">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="223" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D223" s="1" t="s">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="224" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D224" s="1" t="s">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="225" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D225" s="1" t="s">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="226" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D226" s="1" t="s">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="227" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D227" s="1" t="s">
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="228" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D228" s="1" t="s">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="229" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D229" s="1" t="s">
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="230" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D230" s="1" t="s">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="231" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D231" s="1" t="s">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="232" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D232" s="1" t="s">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="233" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D233" s="1" t="s">
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="234" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D234" s="1" t="s">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="235" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D235" s="1" t="s">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="236" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D236" s="1" t="s">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="237" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D237" s="1" t="s">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="238" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D238" s="1" t="s">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="239" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D239" s="1" t="s">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="240" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D240" s="1" t="s">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="241" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D241" s="1" t="s">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="242" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D242" s="1" t="s">
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="243" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D243" s="1" t="s">
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="244" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D244" s="1" t="s">
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="245" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D245" s="1" t="s">
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="246" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D246" s="1" t="s">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="247" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D247" s="1" t="s">
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="248" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D248" s="1" t="s">
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="249" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D249" s="1" t="s">
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="250" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D250" s="1" t="s">
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="251" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D251" s="1" t="s">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="252" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D252" s="1" t="s">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="253" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D253" s="1" t="s">
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="254" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D254" s="1" t="s">
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="255" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D255" s="1" t="s">
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="256" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D256" s="1" t="s">
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="257" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D257" s="1" t="s">
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="258" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D258" s="1" t="s">
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="259" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D259" s="1" t="s">
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="260" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D260" s="1" t="s">
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="261" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D261" s="1" t="s">
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="262" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D262" s="1" t="s">
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="263" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D263" s="1" t="s">
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="J263" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="264" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D264" s="1" t="s">
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="265" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D265" s="1" t="s">
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="266" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D266" s="1" t="s">
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="267" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D267" s="1" t="s">
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="268" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D268" s="1" t="s">
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="269" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D269" s="1" t="s">
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="J269" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="270" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D270" s="1" t="s">
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="271" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D271" s="1" t="s">
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="272" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D272" s="1" t="s">
+      <c r="B272" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="273" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D273" s="1" t="s">
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="274" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D274" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="J274" s="2" t="s">
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="275" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C275" s="3"/>
-      <c r="D275" s="1" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="276" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C276" s="3"/>
-      <c r="D276" s="1" t="s">
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="277" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C277" s="3"/>
-      <c r="D277" s="1" t="s">
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="278" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C278" s="3"/>
-      <c r="D278" s="1" t="s">
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="J278" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="279" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D279" s="1" t="s">
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="J279" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="280" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D280" s="1" t="s">
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="J280" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="281" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D281" s="1" t="s">
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J281" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="282" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D282" s="1" t="s">
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="J282" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="283" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D283" s="1" t="s">
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="J283" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="284" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D284" s="1" t="s">
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="J284" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="285" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D285" s="1" t="s">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="J285" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="286" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D286" s="1" t="s">
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J286" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="287" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D287" s="1" t="s">
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="J287" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="288" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D288" s="1" t="s">
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J288" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="289" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D289" s="1" t="s">
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="J289" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="290" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D290" s="1" t="s">
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="J290" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="291" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D291" s="1" t="s">
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="J291" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="292" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D292" s="1" t="s">
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="J292" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="293" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D293" s="1" t="s">
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="J293" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="294" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D294" s="1" t="s">
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="J294" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="295" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D295" s="1" t="s">
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="J295" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="296" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D296" s="1" t="s">
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="J296" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="297" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D297" s="1" t="s">
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="J297" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="298" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D298" s="1" t="s">
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="J298" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="299" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D299" s="1" t="s">
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="J299" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="300" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D300" s="1" t="s">
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="J300" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="301" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D301" s="1" t="s">
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="J301" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="302" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D302" s="1" t="s">
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="J302" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="303" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D303" s="1" t="s">
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="J303" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="304" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D304" s="1" t="s">
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="J304" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="305" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D305" s="1" t="s">
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="J305" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="306" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D306" s="1" t="s">
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="J306" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="307" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D307" s="1" t="s">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="J307" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="308" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D308" s="1" t="s">
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="J308" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="309" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D309" s="1" t="s">
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="J309" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="310" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D310" s="1" t="s">
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="J310" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="311" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D311" s="1" t="s">
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="J311" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="312" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D312" s="1" t="s">
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="J312" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="313" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D313" s="1" t="s">
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="J313" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="314" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D314" s="1" t="s">
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="J314" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="315" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D315" s="1" t="s">
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="J315" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="316" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D316" s="1" t="s">
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="J316" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="317" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D317" s="1" t="s">
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="J317" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="318" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D318" s="1" t="s">
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="J318" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="319" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D319" s="1" t="s">
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="J319" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="320" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D320" s="1" t="s">
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="J320" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="321" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D321" s="1" t="s">
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="J321" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="322" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D322" s="1" t="s">
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="J322" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="323" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D323" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="J323" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="324" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D324" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="J324" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="325" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D325" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="J325" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="326" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J326" s="1"/>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B324" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
